--- a/Dokument/Sprint3.xlsx
+++ b/Dokument/Sprint3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slisk_000\Desktop\Projekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slisk_000\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Banner function</t>
   </si>
@@ -83,36 +83,12 @@
     <t>Product styling</t>
   </si>
   <si>
-    <t>(DB:Accounts)</t>
-  </si>
-  <si>
-    <t>Populate DB Accounts</t>
-  </si>
-  <si>
-    <t>(Login logic)</t>
-  </si>
-  <si>
-    <t>(MyPage styling)</t>
-  </si>
-  <si>
-    <t>(Contentpage: MyPage WF)</t>
-  </si>
-  <si>
-    <t>(MyPage logic)</t>
-  </si>
-  <si>
     <t>Verklig arbetad tid i tim</t>
   </si>
   <si>
     <t>Uppskattad arbetad tid tim</t>
   </si>
   <si>
-    <t>Antal tim/Dag  7</t>
-  </si>
-  <si>
-    <t>Antal tim/Dag  6</t>
-  </si>
-  <si>
     <t>Antal tim/Dag 5</t>
   </si>
   <si>
@@ -123,6 +99,18 @@
   </si>
   <si>
     <t>Antal tim/Dag 1</t>
+  </si>
+  <si>
+    <t>Vecka 1</t>
+  </si>
+  <si>
+    <t>Vecka 2</t>
+  </si>
+  <si>
+    <t>Vecka 3</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -151,7 +139,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,12 +172,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -197,6 +179,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -213,17 +213,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -339,7 +342,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad1!$A$25</c:f>
+              <c:f>Blad1!$A$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -368,28 +371,22 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Blad1!$C$1:$I$1</c:f>
+              <c:f>Blad1!$C$1:$G$1</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Antal tim/Dag  7</c:v>
+                  <c:v>Antal tim/Dag 5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Antal tim/Dag  6</c:v>
+                  <c:v>Antal tim/Dag  4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Antal tim/Dag 5</c:v>
+                  <c:v>Antal tim/Dag  3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Antal tim/Dag  4</c:v>
+                  <c:v>Antal tim/Dag 2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Antal tim/Dag  3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Antal tim/Dag 2</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Antal tim/Dag 1</c:v>
                 </c:pt>
               </c:strCache>
@@ -397,14 +394,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$C$24:$J$24</c:f>
+              <c:f>Blad1!$C$18:$H$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -417,7 +426,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad1!$A$24</c:f>
+              <c:f>Blad1!$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -446,28 +455,22 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Blad1!$C$1:$I$1</c:f>
+              <c:f>Blad1!$C$1:$G$1</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>Antal tim/Dag  7</c:v>
+                  <c:v>Antal tim/Dag 5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Antal tim/Dag  6</c:v>
+                  <c:v>Antal tim/Dag  4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Antal tim/Dag 5</c:v>
+                  <c:v>Antal tim/Dag  3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Antal tim/Dag  4</c:v>
+                  <c:v>Antal tim/Dag 2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Antal tim/Dag  3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Antal tim/Dag 2</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>Antal tim/Dag 1</c:v>
                 </c:pt>
               </c:strCache>
@@ -475,32 +478,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$C$25:$J$25</c:f>
+              <c:f>Blad1!$C$19:$H$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>56</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -517,11 +514,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="452402384"/>
-        <c:axId val="452401600"/>
+        <c:axId val="408641920"/>
+        <c:axId val="408643880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="452402384"/>
+        <c:axId val="408641920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -563,7 +560,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452401600"/>
+        <c:crossAx val="408643880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -571,7 +568,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="452401600"/>
+        <c:axId val="408643880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -621,7 +618,7 @@
             <a:endParaRPr lang="sv-SE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452402384"/>
+        <c:crossAx val="408641920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1252,16 +1249,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>335756</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>539863</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>124089</xdr:rowOff>
+      <xdr:rowOff>135428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>6879</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>403754</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>77523</xdr:rowOff>
+      <xdr:rowOff>88862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1546,15 +1543,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" customWidth="1"/>
@@ -1564,7 +1562,7 @@
     <col min="9" max="9" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -1572,31 +1570,25 @@
         <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1616,19 +1608,13 @@
         <v>0</v>
       </c>
       <c r="G2" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1645,22 +1631,16 @@
         <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1674,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
@@ -1683,16 +1663,10 @@
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1706,25 +1680,19 @@
         <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
       </c>
       <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1735,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
@@ -1747,16 +1715,10 @@
         <v>0</v>
       </c>
       <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1767,42 +1729,36 @@
         <v>0</v>
       </c>
       <c r="D7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
@@ -1811,27 +1767,21 @@
         <v>0</v>
       </c>
       <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -1843,30 +1793,24 @@
         <v>0</v>
       </c>
       <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2">
         <v>0</v>
@@ -1875,27 +1819,21 @@
         <v>0</v>
       </c>
       <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -1907,16 +1845,10 @@
         <v>0</v>
       </c>
       <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
@@ -1933,36 +1865,30 @@
         <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
       </c>
       <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
@@ -1971,16 +1897,10 @@
         <v>0</v>
       </c>
       <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
@@ -1997,22 +1917,16 @@
         <v>0</v>
       </c>
       <c r="F14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="2">
         <v>0</v>
       </c>
       <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
@@ -2029,36 +1943,30 @@
         <v>0</v>
       </c>
       <c r="F15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16" s="2">
         <v>0</v>
       </c>
       <c r="D16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
@@ -2067,251 +1975,101 @@
         <v>0</v>
       </c>
       <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="2">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2">
+      <c r="C18" s="6">
+        <v>38</v>
+      </c>
+      <c r="D18" s="6">
+        <v>32</v>
+      </c>
+      <c r="E18" s="6">
+        <v>23</v>
+      </c>
+      <c r="F18" s="6">
+        <v>14</v>
+      </c>
+      <c r="G18" s="6">
+        <v>7</v>
+      </c>
+      <c r="H18" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="2">
-        <v>2</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2">
+      <c r="C19" s="6">
+        <v>40</v>
+      </c>
+      <c r="D19" s="6">
+        <v>32</v>
+      </c>
+      <c r="E19" s="6">
+        <v>24</v>
+      </c>
+      <c r="F19" s="6">
+        <v>16</v>
+      </c>
+      <c r="G19" s="6">
+        <v>8</v>
+      </c>
+      <c r="H19" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="2">
-        <v>12</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2">
-        <v>0</v>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="2">
-        <v>4</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2">
-        <v>0</v>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="9">
+        <v>37</v>
+      </c>
+      <c r="D22" s="9">
+        <v>29</v>
+      </c>
+      <c r="E22" s="9">
+        <v>38</v>
+      </c>
+      <c r="F22" s="9">
+        <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="2">
-        <v>6</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="5">
-        <v>1</v>
-      </c>
-      <c r="C22" s="5">
-        <v>0</v>
-      </c>
-      <c r="D22" s="5">
-        <v>0</v>
-      </c>
-      <c r="E22" s="5">
-        <v>0</v>
-      </c>
-      <c r="F22" s="5">
-        <v>0</v>
-      </c>
-      <c r="G22" s="5">
-        <v>0</v>
-      </c>
-      <c r="H22" s="5">
-        <v>0</v>
-      </c>
-      <c r="I22" s="5">
-        <v>0</v>
-      </c>
-      <c r="J22" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="8">
-        <v>0</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="8">
-        <v>56</v>
-      </c>
-      <c r="D25" s="8">
-        <v>48</v>
-      </c>
-      <c r="E25" s="8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="9">
         <v>40</v>
       </c>
-      <c r="F25" s="8">
-        <v>32</v>
-      </c>
-      <c r="G25" s="8">
-        <v>24</v>
-      </c>
-      <c r="H25" s="8">
-        <v>16</v>
-      </c>
-      <c r="I25" s="8">
-        <v>8</v>
-      </c>
-      <c r="J25" s="8">
-        <v>0</v>
+      <c r="D23" s="9">
+        <v>40</v>
+      </c>
+      <c r="E23" s="9">
+        <v>40</v>
+      </c>
+      <c r="F23" s="9">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
